--- a/ejercicios sin transcribir/Prueba de escritorio ejercicio 3.xlsx
+++ b/ejercicios sin transcribir/Prueba de escritorio ejercicio 3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manch\OneDrive\Escritorio\guia 1\tup_prog_1_2025_guia1\ejercicios sin transcribir\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F77346A-4B89-460D-ADDD-FCB7AF334C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,62 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Nro</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>mcontado</t>
+  </si>
+  <si>
+    <t>m3cuotas</t>
+  </si>
+  <si>
+    <t>M6cuotas</t>
+  </si>
+  <si>
+    <t>m12cuotas</t>
+  </si>
+  <si>
+    <t>Salida/comentarios</t>
+  </si>
+  <si>
+    <t>"ingrese el precio del producto:"</t>
+  </si>
+  <si>
+    <t>"el precio al contado es: 135000 pesos"</t>
+  </si>
+  <si>
+    <t>"el precio en 3 cuotas es: 53100 pesos por cuota"</t>
+  </si>
+  <si>
+    <t>"el precio en 6 cuotas es: 29500 pesos por cuota"</t>
+  </si>
+  <si>
+    <t>"el precio en 12 cuotas es: 17625 pesos por cuota"</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,12 +98,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +447,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="D3:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="50.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>150000</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>150000</v>
+      </c>
+      <c r="F7" s="4">
+        <v>135000</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4">
+        <v>150000</v>
+      </c>
+      <c r="F8" s="4">
+        <v>135000</v>
+      </c>
+      <c r="G8" s="4">
+        <v>53100</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
+        <v>150000</v>
+      </c>
+      <c r="F9" s="4">
+        <v>135000</v>
+      </c>
+      <c r="G9" s="4">
+        <v>53100</v>
+      </c>
+      <c r="H9" s="4">
+        <v>29500</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="3">
+        <v>6</v>
+      </c>
+      <c r="E10" s="4">
+        <v>150000</v>
+      </c>
+      <c r="F10" s="4">
+        <v>135000</v>
+      </c>
+      <c r="G10" s="4">
+        <v>53100</v>
+      </c>
+      <c r="H10" s="4">
+        <v>29500</v>
+      </c>
+      <c r="I10" s="4">
+        <v>17625</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="3">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4">
+        <v>150000</v>
+      </c>
+      <c r="F11" s="4">
+        <v>135000</v>
+      </c>
+      <c r="G11" s="4">
+        <v>53100</v>
+      </c>
+      <c r="H11" s="4">
+        <v>29500</v>
+      </c>
+      <c r="I11" s="4">
+        <v>17625</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="3">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4">
+        <v>150000</v>
+      </c>
+      <c r="F12" s="4">
+        <v>135000</v>
+      </c>
+      <c r="G12" s="4">
+        <v>53100</v>
+      </c>
+      <c r="H12" s="4">
+        <v>29500</v>
+      </c>
+      <c r="I12" s="4">
+        <v>17625</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="3">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4">
+        <v>150000</v>
+      </c>
+      <c r="F13" s="4">
+        <v>135000</v>
+      </c>
+      <c r="G13" s="4">
+        <v>53100</v>
+      </c>
+      <c r="H13" s="4">
+        <v>29500</v>
+      </c>
+      <c r="I13" s="4">
+        <v>17625</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="3">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4">
+        <v>150000</v>
+      </c>
+      <c r="F14" s="4">
+        <v>135000</v>
+      </c>
+      <c r="G14" s="4">
+        <v>53100</v>
+      </c>
+      <c r="H14" s="4">
+        <v>29500</v>
+      </c>
+      <c r="I14" s="4">
+        <v>17625</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>